--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.9064200000000001</v>
+        <v>1.012617333333333</v>
       </c>
       <c r="H2">
-        <v>2.71926</v>
+        <v>3.037852</v>
       </c>
       <c r="I2">
-        <v>0.01741933661286065</v>
+        <v>0.0186050446061446</v>
       </c>
       <c r="J2">
-        <v>0.01741933661286065</v>
+        <v>0.0186050446061446</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.576447</v>
+        <v>3.916551333333333</v>
       </c>
       <c r="N2">
-        <v>13.729341</v>
+        <v>11.749654</v>
       </c>
       <c r="O2">
-        <v>0.06514895840416587</v>
+        <v>0.06008397860270322</v>
       </c>
       <c r="P2">
-        <v>0.06514895840416586</v>
+        <v>0.06008397860270322</v>
       </c>
       <c r="Q2">
-        <v>4.148183089740001</v>
+        <v>3.96596776702311</v>
       </c>
       <c r="R2">
-        <v>37.33364780766</v>
+        <v>35.693709903208</v>
       </c>
       <c r="S2">
-        <v>0.001134851636419422</v>
+        <v>0.001117865102017931</v>
       </c>
       <c r="T2">
-        <v>0.001134851636419422</v>
+        <v>0.001117865102017931</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.9064200000000001</v>
+        <v>1.012617333333333</v>
       </c>
       <c r="H3">
-        <v>2.71926</v>
+        <v>3.037852</v>
       </c>
       <c r="I3">
-        <v>0.01741933661286065</v>
+        <v>0.0186050446061446</v>
       </c>
       <c r="J3">
-        <v>0.01741933661286065</v>
+        <v>0.0186050446061446</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>25.39955333333333</v>
       </c>
       <c r="N3">
-        <v>76.19866</v>
+        <v>76.19865999999999</v>
       </c>
       <c r="O3">
-        <v>0.3615805981360051</v>
+        <v>0.3896556151351059</v>
       </c>
       <c r="P3">
-        <v>0.3615805981360051</v>
+        <v>0.3896556151351059</v>
       </c>
       <c r="Q3">
-        <v>23.0226631324</v>
+        <v>25.72002796425777</v>
       </c>
       <c r="R3">
-        <v>207.2039681916</v>
+        <v>231.48025167832</v>
       </c>
       <c r="S3">
-        <v>0.006298494151610567</v>
+        <v>0.007249560100623358</v>
       </c>
       <c r="T3">
-        <v>0.006298494151610567</v>
+        <v>0.007249560100623358</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.9064200000000001</v>
+        <v>1.012617333333333</v>
       </c>
       <c r="H4">
-        <v>2.71926</v>
+        <v>3.037852</v>
       </c>
       <c r="I4">
-        <v>0.01741933661286065</v>
+        <v>0.0186050446061446</v>
       </c>
       <c r="J4">
-        <v>0.01741933661286065</v>
+        <v>0.0186050446061446</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.125141333333333</v>
+        <v>2.116117333333333</v>
       </c>
       <c r="N4">
-        <v>6.375424</v>
+        <v>6.348352</v>
       </c>
       <c r="O4">
-        <v>0.03025288926722126</v>
+        <v>0.03246344494318116</v>
       </c>
       <c r="P4">
-        <v>0.03025288926722126</v>
+        <v>0.03246344494318116</v>
       </c>
       <c r="Q4">
-        <v>1.92627060736</v>
+        <v>2.142817091100444</v>
       </c>
       <c r="R4">
-        <v>17.33643546624</v>
+        <v>19.285353819904</v>
       </c>
       <c r="S4">
-        <v>0.0005269852616573263</v>
+        <v>0.0006039838412370049</v>
       </c>
       <c r="T4">
-        <v>0.0005269852616573263</v>
+        <v>0.0006039838412370049</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.9064200000000001</v>
+        <v>1.012617333333333</v>
       </c>
       <c r="H5">
-        <v>2.71926</v>
+        <v>3.037852</v>
       </c>
       <c r="I5">
-        <v>0.01741933661286065</v>
+        <v>0.0186050446061446</v>
       </c>
       <c r="J5">
-        <v>0.01741933661286065</v>
+        <v>0.0186050446061446</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>38.144755</v>
+        <v>33.75239833333333</v>
       </c>
       <c r="N5">
-        <v>114.434265</v>
+        <v>101.257195</v>
       </c>
       <c r="O5">
-        <v>0.5430175541926079</v>
+        <v>0.5177969613190098</v>
       </c>
       <c r="P5">
-        <v>0.5430175541926079</v>
+        <v>0.5177969613190098</v>
       </c>
       <c r="Q5">
-        <v>34.5751688271</v>
+        <v>34.17826359390444</v>
       </c>
       <c r="R5">
-        <v>311.1765194439</v>
+        <v>307.60437234514</v>
       </c>
       <c r="S5">
-        <v>0.009459005563173337</v>
+        <v>0.009633635562266308</v>
       </c>
       <c r="T5">
-        <v>0.009459005563173337</v>
+        <v>0.009633635562266308</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>127.765256</v>
       </c>
       <c r="I6">
-        <v>0.8184528149909583</v>
+        <v>0.7824865355506074</v>
       </c>
       <c r="J6">
-        <v>0.8184528149909585</v>
+        <v>0.7824865355506075</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.576447</v>
+        <v>3.916551333333333</v>
       </c>
       <c r="N6">
-        <v>13.729341</v>
+        <v>11.749654</v>
       </c>
       <c r="O6">
-        <v>0.06514895840416587</v>
+        <v>0.06008397860270322</v>
       </c>
       <c r="P6">
-        <v>0.06514895840416586</v>
+        <v>0.06008397860270322</v>
       </c>
       <c r="Q6">
-        <v>194.9036408418106</v>
+        <v>166.7997279134915</v>
       </c>
       <c r="R6">
-        <v>1754.132767576296</v>
+        <v>1501.197551221424</v>
       </c>
       <c r="S6">
-        <v>0.05332134839961841</v>
+        <v>0.04701490425892607</v>
       </c>
       <c r="T6">
-        <v>0.05332134839961841</v>
+        <v>0.04701490425892608</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>127.765256</v>
       </c>
       <c r="I7">
-        <v>0.8184528149909583</v>
+        <v>0.7824865355506074</v>
       </c>
       <c r="J7">
-        <v>0.8184528149909585</v>
+        <v>0.7824865355506075</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>25.39955333333333</v>
       </c>
       <c r="N7">
-        <v>76.19866</v>
+        <v>76.19865999999999</v>
       </c>
       <c r="O7">
-        <v>0.3615805981360051</v>
+        <v>0.3896556151351059</v>
       </c>
       <c r="P7">
-        <v>0.3615805981360051</v>
+        <v>0.3896556151351059</v>
       </c>
       <c r="Q7">
         <v>1081.726811306329</v>
       </c>
       <c r="R7">
-        <v>9735.541301756961</v>
+        <v>9735.541301756959</v>
       </c>
       <c r="S7">
-        <v>0.2959366583905278</v>
+        <v>0.3049002723449099</v>
       </c>
       <c r="T7">
-        <v>0.2959366583905279</v>
+        <v>0.3049002723449099</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>127.765256</v>
       </c>
       <c r="I8">
-        <v>0.8184528149909583</v>
+        <v>0.7824865355506074</v>
       </c>
       <c r="J8">
-        <v>0.8184528149909585</v>
+        <v>0.7824865355506075</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.125141333333333</v>
+        <v>2.116117333333333</v>
       </c>
       <c r="N8">
-        <v>6.375424</v>
+        <v>6.348352</v>
       </c>
       <c r="O8">
-        <v>0.03025288926722126</v>
+        <v>0.03246344494318116</v>
       </c>
       <c r="P8">
-        <v>0.03025288926722126</v>
+        <v>0.03246344494318116</v>
       </c>
       <c r="Q8">
-        <v>90.50640882983821</v>
+        <v>90.12209093979021</v>
       </c>
       <c r="R8">
-        <v>814.5576794685439</v>
+        <v>811.098818458112</v>
       </c>
       <c r="S8">
-        <v>0.02476056238236699</v>
+        <v>0.02540220856562771</v>
       </c>
       <c r="T8">
-        <v>0.02476056238236699</v>
+        <v>0.02540220856562771</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>127.765256</v>
       </c>
       <c r="I9">
-        <v>0.8184528149909583</v>
+        <v>0.7824865355506074</v>
       </c>
       <c r="J9">
-        <v>0.8184528149909585</v>
+        <v>0.7824865355506075</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.144755</v>
+        <v>33.75239833333333</v>
       </c>
       <c r="N9">
-        <v>114.434265</v>
+        <v>101.257195</v>
       </c>
       <c r="O9">
-        <v>0.5430175541926079</v>
+        <v>0.5177969613190098</v>
       </c>
       <c r="P9">
-        <v>0.5430175541926079</v>
+        <v>0.5177969613190098</v>
       </c>
       <c r="Q9">
-        <v>1624.524795877426</v>
+        <v>1437.461271224102</v>
       </c>
       <c r="R9">
-        <v>14620.72316289684</v>
+        <v>12937.15144101692</v>
       </c>
       <c r="S9">
-        <v>0.4444342458184452</v>
+        <v>0.4051691503811438</v>
       </c>
       <c r="T9">
-        <v>0.4444342458184453</v>
+        <v>0.4051691503811439</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.540438</v>
+        <v>10.82599466666667</v>
       </c>
       <c r="H10">
-        <v>25.621314</v>
+        <v>32.477984</v>
       </c>
       <c r="I10">
-        <v>0.164127848396181</v>
+        <v>0.198908419843248</v>
       </c>
       <c r="J10">
-        <v>0.164127848396181</v>
+        <v>0.198908419843248</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.576447</v>
+        <v>3.916551333333333</v>
       </c>
       <c r="N10">
-        <v>13.729341</v>
+        <v>11.749654</v>
       </c>
       <c r="O10">
-        <v>0.06514895840416587</v>
+        <v>0.06008397860270322</v>
       </c>
       <c r="P10">
-        <v>0.06514895840416586</v>
+        <v>0.06008397860270322</v>
       </c>
       <c r="Q10">
-        <v>39.084861863786</v>
+        <v>42.40056384639288</v>
       </c>
       <c r="R10">
-        <v>351.763756774074</v>
+        <v>381.605074617536</v>
       </c>
       <c r="S10">
-        <v>0.01069275836812804</v>
+        <v>0.01195120924175922</v>
       </c>
       <c r="T10">
-        <v>0.01069275836812804</v>
+        <v>0.01195120924175922</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.540438</v>
+        <v>10.82599466666667</v>
       </c>
       <c r="H11">
-        <v>25.621314</v>
+        <v>32.477984</v>
       </c>
       <c r="I11">
-        <v>0.164127848396181</v>
+        <v>0.198908419843248</v>
       </c>
       <c r="J11">
-        <v>0.164127848396181</v>
+        <v>0.198908419843248</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>25.39955333333333</v>
       </c>
       <c r="N11">
-        <v>76.19866</v>
+        <v>76.19865999999999</v>
       </c>
       <c r="O11">
-        <v>0.3615805981360051</v>
+        <v>0.3896556151351059</v>
       </c>
       <c r="P11">
-        <v>0.3615805981360051</v>
+        <v>0.3896556151351059</v>
       </c>
       <c r="Q11">
-        <v>216.9233104710267</v>
+        <v>274.9754289223822</v>
       </c>
       <c r="R11">
-        <v>1952.30979423924</v>
+        <v>2474.77886030144</v>
       </c>
       <c r="S11">
-        <v>0.05934544559386669</v>
+        <v>0.0775057826895727</v>
       </c>
       <c r="T11">
-        <v>0.05934544559386669</v>
+        <v>0.0775057826895727</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.540438</v>
+        <v>10.82599466666667</v>
       </c>
       <c r="H12">
-        <v>25.621314</v>
+        <v>32.477984</v>
       </c>
       <c r="I12">
-        <v>0.164127848396181</v>
+        <v>0.198908419843248</v>
       </c>
       <c r="J12">
-        <v>0.164127848396181</v>
+        <v>0.198908419843248</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.125141333333333</v>
+        <v>2.116117333333333</v>
       </c>
       <c r="N12">
-        <v>6.375424</v>
+        <v>6.348352</v>
       </c>
       <c r="O12">
-        <v>0.03025288926722126</v>
+        <v>0.03246344494318116</v>
       </c>
       <c r="P12">
-        <v>0.03025288926722126</v>
+        <v>0.03246344494318116</v>
       </c>
       <c r="Q12">
-        <v>18.14963779857067</v>
+        <v>22.90907496470756</v>
       </c>
       <c r="R12">
-        <v>163.346740187136</v>
+        <v>206.181674682368</v>
       </c>
       <c r="S12">
-        <v>0.004965341623196942</v>
+        <v>0.006457252536316445</v>
       </c>
       <c r="T12">
-        <v>0.004965341623196942</v>
+        <v>0.006457252536316445</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.540438</v>
+        <v>10.82599466666667</v>
       </c>
       <c r="H13">
-        <v>25.621314</v>
+        <v>32.477984</v>
       </c>
       <c r="I13">
-        <v>0.164127848396181</v>
+        <v>0.198908419843248</v>
       </c>
       <c r="J13">
-        <v>0.164127848396181</v>
+        <v>0.198908419843248</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>38.144755</v>
+        <v>33.75239833333333</v>
       </c>
       <c r="N13">
-        <v>114.434265</v>
+        <v>101.257195</v>
       </c>
       <c r="O13">
-        <v>0.5430175541926079</v>
+        <v>0.5177969613190098</v>
       </c>
       <c r="P13">
-        <v>0.5430175541926079</v>
+        <v>0.5177969613190098</v>
       </c>
       <c r="Q13">
-        <v>325.77291510269</v>
+        <v>365.4032843438756</v>
       </c>
       <c r="R13">
-        <v>2931.95623592421</v>
+        <v>3288.62955909488</v>
       </c>
       <c r="S13">
-        <v>0.08912430281098935</v>
+        <v>0.1029941753755996</v>
       </c>
       <c r="T13">
-        <v>0.08912430281098935</v>
+        <v>0.1029941753755996</v>
       </c>
     </row>
   </sheetData>
